--- a/FPH_Linear/312-FPH-Relatório-Reg-D-B. COQUEIROS.xlsx
+++ b/FPH_Linear/312-FPH-Relatório-Reg-D-B. COQUEIROS.xlsx
@@ -951,7 +951,7 @@
         <v>0.1134778414412607</v>
       </c>
       <c r="E2">
-        <v>-0.00497503103236091</v>
+        <v>-0.005618847206425233</v>
       </c>
       <c r="F2">
         <v>-32.34062295104378</v>
@@ -960,7 +960,7 @@
         <v>0.6633101493212055</v>
       </c>
       <c r="H2">
-        <v>1.118439249597827</v>
+        <v>1.126917556748875</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -977,7 +977,7 @@
         <v>0.1103392677850948</v>
       </c>
       <c r="E3">
-        <v>-0.004601217620935412</v>
+        <v>-0.005186086295505714</v>
       </c>
       <c r="F3">
         <v>-31.51156869103308</v>
@@ -997,7 +997,7 @@
         <v>0.1075945251438322</v>
       </c>
       <c r="E4">
-        <v>-0.004383279639627838</v>
+        <v>-0.004933781170991944</v>
       </c>
       <c r="F4">
         <v>-30.88494389577507</v>
@@ -1017,7 +1017,7 @@
         <v>0.1052109743975806</v>
       </c>
       <c r="E5">
-        <v>-0.004288650323535855</v>
+        <v>-0.004824229539670072</v>
       </c>
       <c r="F5">
         <v>-30.42622948919276</v>
@@ -1037,7 +1037,7 @@
         <v>0.1041555820899535</v>
       </c>
       <c r="E6">
-        <v>-0.004288650323535855</v>
+        <v>-0.004824229539670072</v>
       </c>
       <c r="F6">
         <v>-30.26095501516875</v>
@@ -1057,7 +1057,7 @@
         <v>0.09185958126218809</v>
       </c>
       <c r="E7">
-        <v>-0.004288650323535855</v>
+        <v>-0.004824229539670072</v>
       </c>
       <c r="F7">
         <v>-27.15990345630865</v>
@@ -1077,7 +1077,7 @@
         <v>0.06688232034290904</v>
       </c>
       <c r="E8">
-        <v>-0.004288650323535855</v>
+        <v>-0.004824229539670072</v>
       </c>
       <c r="F8">
         <v>-20.06469610287271</v>
@@ -1097,7 +1097,7 @@
         <v>0.03562196477349072</v>
       </c>
       <c r="E9">
-        <v>-0.004288650323535855</v>
+        <v>-0.004824229539670072</v>
       </c>
       <c r="F9">
         <v>-10.68658943204721</v>
@@ -1117,7 +1117,7 @@
         <v>0.02062175446752543</v>
       </c>
       <c r="E10">
-        <v>-0.005082681186788362</v>
+        <v>-0.005743472962127782</v>
       </c>
       <c r="F10">
         <v>-6.186526340257624</v>
@@ -1137,7 +1137,7 @@
         <v>0.008325753639759629</v>
       </c>
       <c r="E11">
-        <v>-0.007035334640175663</v>
+        <v>-0.008004044844703082</v>
       </c>
       <c r="F11">
         <v>-2.497726091927889</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-0.01100182223832616</v>
+        <v>-0.01259601702563885</v>
       </c>
       <c r="F12">
         <v>0</v>
